--- a/biology/Botanique/Roseraie_de_Dresde/Roseraie_de_Dresde.xlsx
+++ b/biology/Botanique/Roseraie_de_Dresde/Roseraie_de_Dresde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La roseraie de Dresde est un jardin situé à Dresde en Saxe, dans le nouveau quartier de l'Elbe. C'est aujourd'hui un lieu protégé ouvert gratuitement au public toute l'année. Il s'étend sur une surface d'environ 29 500 m2. Il est remarquables par ses essences, ses allées droites et ses roses, de plus d'une centaine de variétés, ainsi que ses sculptures.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La roseraie date de 1935-1936, lorsque le directeur des jardins de la ville, Heinrich Blake, décide de donner corps à un ancien projet d'Auguste le Fort qui voulait une promenade au bord de l'Elbe. Un grand nombre de plantes datent du début du jardin, quand eut lieu en 1936 une grande exposition d'art des jardins, intitulée le Reichsgartenschau. Une partie des structures du milieu du parc a été conçue comme élément temporaire, pour l'exposition, avec la section Partie de l'Exposition N°45 intitulée La Roseraie. L'année suivante en 1937, l'exposition intitulée Jahresschau Garten und Heim est organisée dans le parc.
 Celui-ci souffre des dommages de la Seconde Guerre mondiale et il est bombardé par les britanniques en février 1945. La roseraie est reconstituée en 1976 (sous le régime de la république démocratique allemande) en l'honneur des fêtes du travail qui avaient lieu tous les ans en juin pendant une semaine, à partir de 1959, dans une ville différente chaque année (Dresde en 1976). Il est réhabilité en 1997 et des recherches sont effectuées afin de redonner à la roseraie son aspect originel. Beaucoup de robiniers et de tilleuls à petites feuilles, bordant la roseraie, ont été plantés après la guerre, et en 1988, des cornouillers mâles, des aubépines, des sorbiers de Suède, ou des érables champêtres.
